--- a/out/xls/cronbach/categories alpha.xlsx
+++ b/out/xls/cronbach/categories alpha.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Dropbox\Davis\Research Projects\Ed Lab GSR\caschls\out\xls\cronbach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C7F30-36C1-4E98-8D96-D1D92634EF35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45864F6B-F848-4144-881A-7FDAB4D6F8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9570" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="School Climate" sheetId="1" r:id="rId1"/>
     <sheet name="Teacher and Staff Quality" sheetId="2" r:id="rId2"/>
     <sheet name="Support for Students" sheetId="3" r:id="rId3"/>
-    <sheet name="Student Motivation" sheetId="4" r:id="rId4"/>
+    <sheet name="Student Motivation_archived" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>Item</t>
   </si>
@@ -57,15 +57,9 @@
     <t>Test scale</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>9. promotes academic success for all students</t>
-  </si>
-  <si>
     <t>16. is a supportive and inviting place</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>24. I am part of this school</t>
   </si>
   <si>
-    <t>25. Teachers treat students fairly</t>
-  </si>
-  <si>
     <t>26. Feel safe </t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>29. Parents welcome to participate</t>
   </si>
   <si>
-    <t>30. Staff take parent concerns seriously</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
@@ -114,21 +102,9 @@
     <t>24. has high expectations for all students</t>
   </si>
   <si>
-    <t>41. feel a responsibility to improve this school</t>
-  </si>
-  <si>
-    <t>44. motivates students to learn</t>
-  </si>
-  <si>
-    <t>64. students are motivated to learn</t>
-  </si>
-  <si>
     <t>87. teachers communicate with parents</t>
   </si>
   <si>
-    <t>98. cutting classes or being truant</t>
-  </si>
-  <si>
     <t>Cronbach's Alpha: School Climate</t>
   </si>
   <si>
@@ -165,24 +141,6 @@
     <t>40. who believes I will be a success</t>
   </si>
   <si>
-    <t>103. meeting academic standards</t>
-  </si>
-  <si>
-    <t>104. evidence-based methods of instruction</t>
-  </si>
-  <si>
-    <t>105. positive behavioral support</t>
-  </si>
-  <si>
-    <t>109. closing the achievement gap</t>
-  </si>
-  <si>
-    <t>111. meeting social, emotional… needs of youth</t>
-  </si>
-  <si>
-    <t>112. creating a positive school climate</t>
-  </si>
-  <si>
     <t>Cronbach's Alpha: Teacher and Staff Quality</t>
   </si>
   <si>
@@ -198,9 +156,6 @@
     <t>128. provides counseling… to help students…</t>
   </si>
   <si>
-    <t>Cronbach's Alpha: Support for Students</t>
-  </si>
-  <si>
     <t>Cronbach's Alpha: Student Motivation</t>
   </si>
   <si>
@@ -214,6 +169,9 @@
   </si>
   <si>
     <t>34. I am always trying to do better</t>
+  </si>
+  <si>
+    <t>Cronbach's Alpha: Counseling Support</t>
   </si>
 </sst>
 </file>
@@ -283,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -303,6 +261,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -634,7 +600,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -644,196 +610,196 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>0.53090000000000004</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="E5" s="5">
-        <v>0.47010000000000002</v>
+        <v>0.5373</v>
       </c>
       <c r="F5" s="5">
-        <v>0.41549999999999998</v>
+        <v>0.50239999999999996</v>
       </c>
       <c r="G5" s="5">
-        <v>0.93110000000000004</v>
+        <v>0.88980000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>0.59970000000000001</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="E6" s="5">
-        <v>0.54590000000000005</v>
+        <v>0.4279</v>
       </c>
       <c r="F6" s="5">
-        <v>0.41049999999999998</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="G6" s="5">
-        <v>0.92969999999999997</v>
+        <v>0.89629999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1284</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.5081</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>1281</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.48349999999999999</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.4194</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.93210000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1281</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.55389999999999995</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.49580000000000002</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.93069999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9">
+        <v>1871</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.6179</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.8952</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>0.50639999999999996</v>
+        <v>0.83989999999999998</v>
       </c>
       <c r="E10" s="5">
-        <v>0.44219999999999998</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="F10" s="5">
-        <v>0.41830000000000001</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="G10" s="5">
-        <v>0.93179999999999996</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>0.77090000000000003</v>
+        <v>0.87060000000000004</v>
       </c>
       <c r="E11" s="5">
-        <v>0.73429999999999995</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="F11" s="5">
-        <v>0.39700000000000002</v>
+        <v>0.44640000000000002</v>
       </c>
       <c r="G11" s="5">
-        <v>0.92600000000000005</v>
+        <v>0.86580000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>0.79900000000000004</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="E12" s="5">
-        <v>0.76590000000000003</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="F12" s="5">
-        <v>0.39460000000000001</v>
+        <v>0.45269999999999999</v>
       </c>
       <c r="G12" s="5">
-        <v>0.92530000000000001</v>
+        <v>0.86870000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>1364</v>
+        <v>1831</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>0.75619999999999998</v>
+        <v>0.72640000000000005</v>
       </c>
       <c r="E13" s="5">
-        <v>0.71709999999999996</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="F13" s="5">
-        <v>0.39789999999999998</v>
+        <v>0.48759999999999998</v>
       </c>
       <c r="G13" s="5">
-        <v>0.92620000000000002</v>
+        <v>0.88390000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -841,296 +807,33 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>1364</v>
+        <v>1831</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5">
-        <v>0.83720000000000006</v>
+        <v>0.83640000000000003</v>
       </c>
       <c r="E14" s="5">
-        <v>0.8095</v>
+        <v>0.7712</v>
       </c>
       <c r="F14" s="5">
-        <v>0.39150000000000001</v>
+        <v>0.4546</v>
       </c>
       <c r="G14" s="5">
-        <v>0.9244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>1340</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.7369</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.69710000000000005</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.92669999999999997</v>
+        <v>0.86960000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>1340</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.73580000000000001</v>
+      <c r="A16" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="5">
-        <v>0.39689999999999998</v>
+        <v>0.48320000000000002</v>
       </c>
       <c r="G16" s="5">
-        <v>0.92589999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>1340</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.82269999999999999</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.39279999999999998</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.92479999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>1340</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.80249999999999999</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.77070000000000005</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.39450000000000002</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.92530000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>1339</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.44790000000000002</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.93910000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>1051</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.66920000000000002</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.62339999999999995</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.4042</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>1343</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.59079999999999999</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.53259999999999996</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.41089999999999999</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.92979999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>1342</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.7087</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.39879999999999999</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.92649999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>1051</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.75519999999999998</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.71930000000000005</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.39879999999999999</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.92649999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>1264</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.40629999999999999</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.92859999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>1343</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.68389999999999995</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.63670000000000004</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.92789999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.93169999999999997</v>
+        <v>0.89380000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1141,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D2582A-9E7C-4FD0-80E1-BB16771393C8}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1155,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1192,7 +895,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1202,122 +905,122 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>0.62509999999999999</v>
+        <v>0.65080000000000005</v>
       </c>
       <c r="E5" s="5">
-        <v>0.55769999999999997</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="F5" s="5">
-        <v>0.317</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="G5" s="5">
-        <v>0.88129999999999997</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>0.5958</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="E6" s="5">
-        <v>0.5222</v>
+        <v>0.56789999999999996</v>
       </c>
       <c r="F6" s="5">
-        <v>0.31900000000000001</v>
+        <v>0.44259999999999999</v>
       </c>
       <c r="G6" s="5">
-        <v>0.88229999999999997</v>
+        <v>0.91749999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <v>0.59350000000000003</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>0.52229999999999999</v>
+        <v>0.54490000000000005</v>
       </c>
       <c r="F7" s="5">
-        <v>0.31950000000000001</v>
+        <v>0.44379999999999997</v>
       </c>
       <c r="G7" s="5">
-        <v>0.88249999999999995</v>
+        <v>0.91779999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5">
-        <v>0.54830000000000001</v>
+        <v>0.58579999999999999</v>
       </c>
       <c r="E8" s="5">
-        <v>0.46879999999999999</v>
+        <v>0.51060000000000005</v>
       </c>
       <c r="F8" s="5">
-        <v>0.32290000000000002</v>
+        <v>0.4481</v>
       </c>
       <c r="G8" s="5">
-        <v>0.8841</v>
+        <v>0.91920000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>0.56479999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E9" s="5">
-        <v>0.4899</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="F9" s="5">
-        <v>0.32169999999999999</v>
+        <v>0.4456</v>
       </c>
       <c r="G9" s="5">
-        <v>0.88360000000000005</v>
+        <v>0.91839999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -1326,315 +1029,283 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>1364</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.71889999999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.66190000000000004</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.30790000000000001</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.87680000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>40</v>
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>1364</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.74609999999999999</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.69440000000000002</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.87570000000000003</v>
+        <v>1831</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0.91269999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5">
-        <v>0.7046</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="E13" s="5">
-        <v>0.64649999999999996</v>
+        <v>0.79620000000000002</v>
       </c>
       <c r="F13" s="5">
-        <v>0.30919999999999997</v>
+        <v>0.4173</v>
       </c>
       <c r="G13" s="5">
-        <v>0.87749999999999995</v>
+        <v>0.9093</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5">
-        <v>0.66749999999999998</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="E14" s="5">
-        <v>0.60450000000000004</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="F14" s="5">
-        <v>0.31269999999999998</v>
+        <v>0.41289999999999999</v>
       </c>
       <c r="G14" s="5">
-        <v>0.87919999999999998</v>
+        <v>0.90780000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="5">
-        <v>0.74050000000000005</v>
+        <v>0.79859999999999998</v>
       </c>
       <c r="E15" s="5">
-        <v>0.68799999999999994</v>
+        <v>0.75</v>
       </c>
       <c r="F15" s="5">
-        <v>0.30620000000000003</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="G15" s="5">
-        <v>0.876</v>
+        <v>0.91059999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>1364</v>
+        <v>1871</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5">
-        <v>0.68</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="E16" s="5">
-        <v>0.61809999999999998</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="F16" s="5">
-        <v>0.31159999999999999</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="G16" s="5">
-        <v>0.87870000000000004</v>
+        <v>0.90939999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>1871</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.41610000000000003</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.90890000000000004</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
-        <v>1342</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.43690000000000001</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.3458</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.33410000000000001</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.88919999999999999</v>
-      </c>
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>1342</v>
+        <v>1871</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="5">
-        <v>0.4597</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="E19" s="5">
-        <v>0.37040000000000001</v>
+        <v>0.79759999999999998</v>
       </c>
       <c r="F19" s="5">
-        <v>0.33210000000000001</v>
+        <v>0.4178</v>
       </c>
       <c r="G19" s="5">
-        <v>0.88829999999999998</v>
+        <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>1342</v>
+        <v>1524</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5">
-        <v>0.55389999999999995</v>
+        <v>0.14080000000000001</v>
       </c>
       <c r="E20" s="5">
-        <v>0.47310000000000002</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F20" s="5">
-        <v>0.3241</v>
+        <v>0.50119999999999998</v>
       </c>
       <c r="G20" s="5">
-        <v>0.88470000000000004</v>
+        <v>0.93359999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
+      <c r="A21" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>1342</v>
+        <v>1166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5">
-        <v>0.49890000000000001</v>
+        <v>0.5726</v>
       </c>
       <c r="E21" s="5">
-        <v>0.41360000000000002</v>
+        <v>0.49270000000000003</v>
       </c>
       <c r="F21" s="5">
-        <v>0.32840000000000003</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="G21" s="5">
-        <v>0.88670000000000004</v>
+        <v>0.91920000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="7"/>
       <c r="B22">
-        <v>1342</v>
+        <v>1423</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="5">
-        <v>0.4879</v>
+        <v>0.59760000000000002</v>
       </c>
       <c r="E22" s="5">
-        <v>0.40200000000000002</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="F22" s="5">
-        <v>0.32940000000000003</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="G22" s="5">
-        <v>0.8871</v>
+        <v>0.91910000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23">
-        <v>1342</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.60340000000000005</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.31879999999999997</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.88219999999999998</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="5">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.92090000000000005</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5">
-        <v>0.31879999999999997</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.88839999999999997</v>
-      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1648,15 +1319,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1664,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D43574D-2D6F-4EFA-A31B-8DDBA0A2A08C}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1676,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1713,7 +1378,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -1723,53 +1388,53 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>0.72909999999999997</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="E5" s="5">
-        <v>0.45269999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="F5" s="5">
-        <v>0.28139999999999998</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="G5" s="5">
-        <v>0.54020000000000001</v>
+        <v>0.58330000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>0.65749999999999997</v>
+        <v>0.64970000000000006</v>
       </c>
       <c r="E6" s="5">
-        <v>0.35389999999999999</v>
+        <v>0.35089999999999999</v>
       </c>
       <c r="F6" s="5">
-        <v>0.35099999999999998</v>
+        <v>0.38769999999999999</v>
       </c>
       <c r="G6" s="5">
-        <v>0.61870000000000003</v>
+        <v>0.65510000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1779,48 +1444,48 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>1342</v>
+        <v>1527</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5">
-        <v>0.72609999999999997</v>
+        <v>0.76449999999999996</v>
       </c>
       <c r="E8" s="5">
-        <v>0.43519999999999998</v>
+        <v>0.46429999999999999</v>
       </c>
       <c r="F8" s="5">
-        <v>0.28460000000000002</v>
+        <v>0.29920000000000002</v>
       </c>
       <c r="G8" s="5">
-        <v>0.54410000000000003</v>
+        <v>0.56159999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>1319</v>
+        <v>1498</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>0.70399999999999996</v>
+        <v>0.7409</v>
       </c>
       <c r="E9" s="5">
-        <v>0.41589999999999999</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="F9" s="5">
-        <v>0.31040000000000001</v>
+        <v>0.308</v>
       </c>
       <c r="G9" s="5">
-        <v>0.57450000000000001</v>
+        <v>0.57179999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1839,10 +1504,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>0.30690000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G11" s="5">
-        <v>0.63919999999999999</v>
+        <v>0.6623</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2000,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2037,7 +1702,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -2047,7 +1712,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1364</v>
@@ -2070,7 +1735,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1364</v>
@@ -2093,7 +1758,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1364</v>
@@ -2116,7 +1781,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1363</v>
